--- a/2009_dengue_extracted.xlsx
+++ b/2009_dengue_extracted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danalevi/Documents/GitHub/topic04_team04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90910AC6-9D42-F140-9235-B0E7B9F0A1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5067EA-B775-A543-9E00-C9B188C49AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
-    <t>Reporting areas</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jan</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Reporting_areas</t>
   </si>
 </sst>
 </file>
@@ -658,9 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -677,48 +675,48 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -759,7 +757,7 @@
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>22</v>
@@ -800,7 +798,7 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>502</v>
@@ -841,48 +839,48 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2">
         <v>11</v>
@@ -923,7 +921,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>28</v>
@@ -964,7 +962,7 @@
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>9</v>
@@ -1005,7 +1003,7 @@
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2">
         <v>12</v>
@@ -1046,7 +1044,7 @@
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
@@ -1087,7 +1085,7 @@
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2">
         <v>87</v>
@@ -1128,7 +1126,7 @@
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -1169,7 +1167,7 @@
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2">
         <v>66</v>
@@ -1210,7 +1208,7 @@
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2">
         <v>17</v>
@@ -1251,7 +1249,7 @@
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2">
         <v>6</v>
@@ -1292,7 +1290,7 @@
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2">
         <v>12</v>
@@ -1333,7 +1331,7 @@
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>41</v>
@@ -1374,7 +1372,7 @@
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2">
         <v>7</v>
@@ -1415,7 +1413,7 @@
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2">
         <v>42</v>
@@ -1456,7 +1454,7 @@
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2">
         <v>13</v>
@@ -1497,10 +1495,10 @@
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1538,7 +1536,7 @@
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -1579,7 +1577,7 @@
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>31</v>
@@ -1620,7 +1618,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
@@ -1661,7 +1659,7 @@
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1702,7 +1700,7 @@
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1743,7 +1741,7 @@
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2">
         <v>7</v>
@@ -1784,7 +1782,7 @@
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>52</v>
@@ -1825,10 +1823,10 @@
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -1866,7 +1864,7 @@
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>22</v>
@@ -1907,7 +1905,7 @@
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2">
         <v>33</v>
@@ -1948,7 +1946,7 @@
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>148</v>
@@ -1989,7 +1987,7 @@
     </row>
     <row r="33" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -1998,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="2">
         <v>3</v>
@@ -2022,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M33" s="2">
         <v>1</v>
@@ -2030,7 +2028,7 @@
     </row>
     <row r="34" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
         <v>57</v>
@@ -2071,10 +2069,10 @@
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
@@ -2112,7 +2110,7 @@
     </row>
     <row r="36" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
@@ -2153,7 +2151,7 @@
     </row>
     <row r="37" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2">
         <v>70</v>
@@ -2194,7 +2192,7 @@
     </row>
     <row r="38" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2">
         <v>43</v>
@@ -2235,7 +2233,7 @@
     </row>
     <row r="39" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2">
         <v>46</v>
@@ -2276,7 +2274,7 @@
     </row>
     <row r="40" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
         <v>112</v>
@@ -2317,7 +2315,7 @@
     </row>
     <row r="41" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>10</v>
@@ -2358,7 +2356,7 @@
     </row>
     <row r="42" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>71</v>
@@ -2399,10 +2397,10 @@
     </row>
     <row r="43" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
@@ -2440,7 +2438,7 @@
     </row>
     <row r="44" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="5">
         <v>12</v>
@@ -2481,7 +2479,7 @@
     </row>
     <row r="45" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="5">
         <v>24</v>
@@ -2522,7 +2520,7 @@
     </row>
     <row r="46" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="5">
         <v>19</v>
@@ -2563,7 +2561,7 @@
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="5">
         <v>36</v>
@@ -2604,7 +2602,7 @@
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="5">
         <v>7</v>
@@ -2645,7 +2643,7 @@
     </row>
     <row r="49" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="5">
         <v>36</v>
@@ -2686,7 +2684,7 @@
     </row>
     <row r="50" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="5">
         <v>20</v>
@@ -2727,7 +2725,7 @@
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="5">
         <v>9</v>
@@ -2768,7 +2766,7 @@
     </row>
     <row r="52" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="5">
         <v>18</v>
@@ -2809,7 +2807,7 @@
     </row>
     <row r="53" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" s="5">
         <v>76</v>
@@ -2850,7 +2848,7 @@
     </row>
     <row r="54" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" s="5">
         <v>46</v>
@@ -2891,7 +2889,7 @@
     </row>
     <row r="55" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="5">
         <v>9</v>
@@ -2932,7 +2930,7 @@
     </row>
     <row r="56" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="5">
         <v>11</v>
@@ -2973,10 +2971,10 @@
     </row>
     <row r="57" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C57" s="5">
         <v>2</v>
@@ -3009,12 +3007,12 @@
         <v>42</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" s="5">
         <v>95</v>
@@ -3055,7 +3053,7 @@
     </row>
     <row r="59" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="5">
         <v>52</v>
@@ -3096,7 +3094,7 @@
     </row>
     <row r="60" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="5">
         <v>2</v>
@@ -3137,7 +3135,7 @@
     </row>
     <row r="61" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="5">
         <v>17</v>
@@ -3178,7 +3176,7 @@
     </row>
     <row r="62" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="5">
         <v>9</v>
@@ -3219,7 +3217,7 @@
     </row>
     <row r="63" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="5">
         <v>15</v>
@@ -3260,7 +3258,7 @@
     </row>
     <row r="64" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="5">
         <v>2</v>
@@ -3272,13 +3270,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F64" s="5">
         <v>2</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H64" s="5">
         <v>2</v>
@@ -3301,7 +3299,7 @@
     </row>
     <row r="65" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="5">
         <v>243</v>
@@ -3342,7 +3340,7 @@
     </row>
     <row r="66" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="5">
         <v>8</v>
@@ -3383,7 +3381,7 @@
     </row>
     <row r="67" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="5">
         <v>49</v>
@@ -3424,7 +3422,7 @@
     </row>
     <row r="68" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68" s="5">
         <v>56</v>
@@ -3465,7 +3463,7 @@
     </row>
     <row r="69" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="5">
         <v>12</v>
@@ -3506,7 +3504,7 @@
     </row>
     <row r="70" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" s="5">
         <v>19</v>
@@ -3547,7 +3545,7 @@
     </row>
     <row r="71" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="5">
         <v>38</v>
@@ -3588,7 +3586,7 @@
     </row>
     <row r="72" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="5">
         <v>2</v>
@@ -3629,7 +3627,7 @@
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" s="5">
         <v>8</v>
@@ -3670,7 +3668,7 @@
     </row>
     <row r="74" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74" s="5">
         <v>3</v>
@@ -3711,13 +3709,13 @@
     </row>
     <row r="75" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B75" s="5">
         <v>3</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D75" s="5">
         <v>2</v>
@@ -3752,7 +3750,7 @@
     </row>
     <row r="76" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="5">
         <v>13</v>
@@ -3793,7 +3791,7 @@
     </row>
     <row r="77" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="5">
         <v>39</v>
@@ -3834,13 +3832,13 @@
     </row>
     <row r="78" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D78" s="5">
         <v>4</v>

--- a/2009_dengue_extracted.xlsx
+++ b/2009_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5067EA-B775-A543-9E00-C9B188C49AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9D5067EA-B775-A543-9E00-C9B188C49AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6D21424-7CCD-48B4-905E-4A14B434E4E3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,18 +42,9 @@
     <t xml:space="preserve">  May</t>
   </si>
   <si>
-    <t xml:space="preserve">  June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  July</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Aug</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sept</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Oct</t>
   </si>
   <si>
@@ -298,6 +289,15 @@
   </si>
   <si>
     <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sep</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,9 +658,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21"/>
     <col min="2" max="3" width="6"/>
@@ -673,9 +675,9 @@
     <col min="13" max="13" width="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -693,30 +695,30 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -755,9 +757,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>22</v>
@@ -796,9 +798,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>502</v>
@@ -837,50 +839,50 @@
         <v>954</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2">
         <v>11</v>
@@ -919,9 +921,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>28</v>
@@ -960,9 +962,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>9</v>
@@ -1001,9 +1003,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2">
         <v>12</v>
@@ -1042,9 +1044,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
@@ -1083,9 +1085,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2">
         <v>87</v>
@@ -1124,9 +1126,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -1165,9 +1167,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2">
         <v>66</v>
@@ -1206,9 +1208,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
         <v>17</v>
@@ -1247,9 +1249,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2">
         <v>6</v>
@@ -1288,9 +1290,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2">
         <v>12</v>
@@ -1329,9 +1331,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>41</v>
@@ -1370,9 +1372,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2">
         <v>7</v>
@@ -1411,9 +1413,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
         <v>42</v>
@@ -1452,9 +1454,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2">
         <v>13</v>
@@ -1493,12 +1495,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1534,9 +1536,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -1575,9 +1577,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2">
         <v>31</v>
@@ -1616,9 +1618,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
@@ -1657,9 +1659,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1698,9 +1700,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1739,9 +1741,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
         <v>7</v>
@@ -1780,9 +1782,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2">
         <v>52</v>
@@ -1821,12 +1823,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -1862,9 +1864,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2">
         <v>22</v>
@@ -1903,9 +1905,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2">
         <v>33</v>
@@ -1944,9 +1946,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
         <v>148</v>
@@ -1985,9 +1987,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -1996,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E33" s="2">
         <v>3</v>
@@ -2020,15 +2022,15 @@
         <v>2</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M33" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2">
         <v>57</v>
@@ -2067,12 +2069,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
@@ -2108,9 +2110,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2">
         <v>4</v>
@@ -2149,9 +2151,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2">
         <v>70</v>
@@ -2190,9 +2192,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2">
         <v>43</v>
@@ -2231,9 +2233,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2">
         <v>46</v>
@@ -2272,9 +2274,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>112</v>
@@ -2313,9 +2315,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>10</v>
@@ -2354,9 +2356,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2">
         <v>71</v>
@@ -2395,12 +2397,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
@@ -2436,9 +2438,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B44" s="5">
         <v>12</v>
@@ -2477,9 +2479,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B45" s="5">
         <v>24</v>
@@ -2518,9 +2520,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B46" s="5">
         <v>19</v>
@@ -2559,9 +2561,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B47" s="5">
         <v>36</v>
@@ -2600,9 +2602,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B48" s="5">
         <v>7</v>
@@ -2641,9 +2643,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B49" s="5">
         <v>36</v>
@@ -2682,9 +2684,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B50" s="5">
         <v>20</v>
@@ -2723,9 +2725,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B51" s="5">
         <v>9</v>
@@ -2764,9 +2766,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B52" s="5">
         <v>18</v>
@@ -2805,9 +2807,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B53" s="5">
         <v>76</v>
@@ -2846,9 +2848,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B54" s="5">
         <v>46</v>
@@ -2887,9 +2889,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B55" s="5">
         <v>9</v>
@@ -2928,9 +2930,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B56" s="5">
         <v>11</v>
@@ -2969,12 +2971,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C57" s="5">
         <v>2</v>
@@ -3007,12 +3009,12 @@
         <v>42</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B58" s="5">
         <v>95</v>
@@ -3051,9 +3053,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B59" s="5">
         <v>52</v>
@@ -3092,9 +3094,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B60" s="5">
         <v>2</v>
@@ -3133,9 +3135,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B61" s="5">
         <v>17</v>
@@ -3174,9 +3176,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B62" s="5">
         <v>9</v>
@@ -3215,9 +3217,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63" s="5">
         <v>15</v>
@@ -3256,9 +3258,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B64" s="5">
         <v>2</v>
@@ -3270,13 +3272,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F64" s="5">
         <v>2</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H64" s="5">
         <v>2</v>
@@ -3297,9 +3299,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B65" s="5">
         <v>243</v>
@@ -3338,9 +3340,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B66" s="5">
         <v>8</v>
@@ -3379,9 +3381,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B67" s="5">
         <v>49</v>
@@ -3420,9 +3422,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B68" s="5">
         <v>56</v>
@@ -3461,9 +3463,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69" s="5">
         <v>12</v>
@@ -3502,9 +3504,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B70" s="5">
         <v>19</v>
@@ -3543,9 +3545,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B71" s="5">
         <v>38</v>
@@ -3584,9 +3586,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B72" s="5">
         <v>2</v>
@@ -3625,9 +3627,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B73" s="5">
         <v>8</v>
@@ -3666,9 +3668,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B74" s="5">
         <v>3</v>
@@ -3707,15 +3709,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B75" s="5">
         <v>3</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D75" s="5">
         <v>2</v>
@@ -3748,9 +3750,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B76" s="5">
         <v>13</v>
@@ -3789,9 +3791,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B77" s="5">
         <v>39</v>
@@ -3830,15 +3832,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D78" s="5">
         <v>4</v>
@@ -3871,9 +3873,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:13" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="81" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="81" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M78">
     <sortCondition ref="A2:A78"/>

--- a/2009_dengue_extracted.xlsx
+++ b/2009_dengue_extracted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9D5067EA-B775-A543-9E00-C9B188C49AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6D21424-7CCD-48B4-905E-4A14B434E4E3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9D5067EA-B775-A543-9E00-C9B188C49AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57DDF295-10FF-44A2-B467-3FB1FA26D164}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>Sakon Nakhon</t>
   </si>
   <si>
-    <t>Kalisin</t>
-  </si>
-  <si>
     <t>Khon Kaen</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Sep</t>
+  </si>
+  <si>
+    <t>Kalasin</t>
   </si>
 </sst>
 </file>
@@ -391,6 +391,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +681,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -695,16 +699,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>6</v>
@@ -718,7 +722,7 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -841,48 +845,48 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2">
         <v>11</v>
@@ -1005,7 +1009,7 @@
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2">
         <v>12</v>
@@ -1087,7 +1091,7 @@
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2">
         <v>87</v>
@@ -1128,7 +1132,7 @@
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -1251,7 +1255,7 @@
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2">
         <v>6</v>
@@ -1292,7 +1296,7 @@
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2">
         <v>12</v>
@@ -1374,7 +1378,7 @@
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2">
         <v>7</v>
@@ -1456,7 +1460,7 @@
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2">
         <v>13</v>
@@ -1497,10 +1501,10 @@
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1620,7 +1624,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
@@ -1661,7 +1665,7 @@
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1828,7 +1832,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -1866,7 +1870,7 @@
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2">
         <v>22</v>
@@ -1907,7 +1911,7 @@
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2">
         <v>33</v>
@@ -1989,7 +1993,7 @@
     </row>
     <row r="33" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -1998,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" s="2">
         <v>3</v>
@@ -2022,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M33" s="2">
         <v>1</v>
@@ -2074,7 +2078,7 @@
         <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
@@ -2399,10 +2403,10 @@
     </row>
     <row r="43" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
@@ -2440,7 +2444,7 @@
     </row>
     <row r="44" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" s="5">
         <v>12</v>
@@ -2522,7 +2526,7 @@
     </row>
     <row r="46" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="5">
         <v>19</v>
@@ -2563,7 +2567,7 @@
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="5">
         <v>36</v>
@@ -2604,7 +2608,7 @@
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="5">
         <v>7</v>
@@ -2891,7 +2895,7 @@
     </row>
     <row r="55" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="5">
         <v>9</v>
@@ -2976,7 +2980,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" s="5">
         <v>2</v>
@@ -3009,7 +3013,7 @@
         <v>42</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3219,7 +3223,7 @@
     </row>
     <row r="63" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="5">
         <v>15</v>
@@ -3272,13 +3276,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F64" s="5">
         <v>2</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H64" s="5">
         <v>2</v>
@@ -3342,7 +3346,7 @@
     </row>
     <row r="66" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="5">
         <v>8</v>
@@ -3465,7 +3469,7 @@
     </row>
     <row r="69" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="5">
         <v>12</v>
@@ -3506,7 +3510,7 @@
     </row>
     <row r="70" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="5">
         <v>19</v>
@@ -3629,7 +3633,7 @@
     </row>
     <row r="73" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="5">
         <v>8</v>
@@ -3711,13 +3715,13 @@
     </row>
     <row r="75" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" s="5">
         <v>3</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" s="5">
         <v>2</v>
@@ -3752,7 +3756,7 @@
     </row>
     <row r="76" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" s="5">
         <v>13</v>
@@ -3834,13 +3838,13 @@
     </row>
     <row r="78" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" s="5">
         <v>4</v>
